--- a/panyam/testdata2/testdata.xlsx
+++ b/panyam/testdata2/testdata.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91630\eclipse-workspace\panyam\testdata2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F27717A-9669-47AE-906A-7E92F728CF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0933F397-9365-43EF-B5A8-89E5C5EABF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8880" xr2:uid="{F6E34E68-1F5A-4180-9271-376F2A2D9924}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F6E34E68-1F5A-4180-9271-376F2A2D9924}"/>
   </bookViews>
   <sheets>
     <sheet name="AmazonSignIn" sheetId="1" r:id="rId1"/>
     <sheet name="searchScenario" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:P23"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -88,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,16 +92,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -424,7 +436,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,34 +446,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>9790792668</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>9790792668</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>9440683220</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -482,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5E55E9-2D37-4FF9-BF7F-9CA3B02DC25B}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
